--- a/biology/Zoologie/Forbestra_olivencia/Forbestra_olivencia.xlsx
+++ b/biology/Zoologie/Forbestra_olivencia/Forbestra_olivencia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Forbestra olivencia  est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Forbestra.
 </t>
@@ -511,19 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Forbestra olivencia  a été décrit par Henry Walter Bates en 1780[1].
-Noms vernaculaires
-Forbestra olivencia  se nomme Olivencia Tigerwing en anglais[2].
-Sous-espèces
-Forbestra olivencia olivencia ; présent au Brésil et au Pérou.
-Forbestra olivencia aeneola Fox, 1967; présent au Pérou.
-Forbestra olivencia juntana(Haensch, 1903); présent en Équateur
-Forbestra olivencia oiticicai (d'Almeida, 1951); présent au Brésil
-Forbestra olivencia truncata(Butler, 1867); présent au Brésil[1].
-Forbestra olivencia ssp au Pérou.
-Forbestra olivencia ssp en Bolivie[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forbestra olivencia  a été décrit par Henry Walter Bates en 1780.
+</t>
         </is>
       </c>
     </row>
@@ -548,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forbestra olivencia  est un papillon d'une envergure d'environ 60 mm à 75 mm, au corps fin, aux ailes à apex arrondi avec les ailes antérieures bien plus longues que les ailes postérieures et à bord interne concave[3]. Les ailes antérieures ont une partie basale de couleur ocre et une partie distale jaune verdi marquée de grosses taches marron et avec la marge de l'apex marron. Les ailes postérieures sont ocre avec une ligne marginale marron et d'une ligne marron en zigzag parallèle à cette marge.
-Le revers est semblable.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forbestra olivencia  se nomme Olivencia Tigerwing en anglais.
 </t>
         </is>
       </c>
@@ -580,12 +590,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Plantes hôtes</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Forbestra olivencia olivencia ; présent au Brésil et au Pérou.
+Forbestra olivencia aeneola Fox, 1967; présent au Pérou.
+Forbestra olivencia juntana(Haensch, 1903); présent en Équateur
+Forbestra olivencia oiticicai (d'Almeida, 1951); présent au Brésil
+Forbestra olivencia truncata(Butler, 1867); présent au Brésil.
+Forbestra olivencia ssp au Pérou.
+Forbestra olivencia ssp en Bolivie.</t>
         </is>
       </c>
     </row>
@@ -610,15 +632,85 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forbestra olivencia  est un papillon d'une envergure d'environ 60 mm à 75 mm, au corps fin, aux ailes à apex arrondi avec les ailes antérieures bien plus longues que les ailes postérieures et à bord interne concave. Les ailes antérieures ont une partie basale de couleur ocre et une partie distale jaune verdi marquée de grosses taches marron et avec la marge de l'apex marron. Les ailes postérieures sont ocre avec une ligne marginale marron et d'une ligne marron en zigzag parallèle à cette marge.
+Le revers est semblable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forbestra_olivencia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forbestra_olivencia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forbestra olivencia est présent en Colombie, en Équateur, en Bolivie, au Pérou, au Brésil[1],[3].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forbestra olivencia est présent en Colombie, en Équateur, en Bolivie, au Pérou, au Brésil,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forbestra_olivencia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Forbestra_olivencia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Forbestra olivencia, sur Wikimedia CommonsForbestra olivencia, sur Wikispecies
 </t>
